--- a/Software/bird.xlsx
+++ b/Software/bird.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nrah_hr\Project\Codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\Smartparkour\Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B092ACEB-8972-4F9F-BCB8-8C5CF482C4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AB21A3-F4BD-412A-8AA0-1E61AB3BCECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1740" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,14 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -427,15 +426,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK31" sqref="AK31"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="148" workbookViewId="0">
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="50" width="1.625" customWidth="1"/>
+    <col min="1" max="2" width="1.625" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="12" width="1.625" customWidth="1"/>
+    <col min="13" max="13" width="3.125" customWidth="1"/>
+    <col min="14" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="3.125" customWidth="1"/>
+    <col min="17" max="17" width="3" customWidth="1"/>
+    <col min="18" max="19" width="3.125" customWidth="1"/>
+    <col min="20" max="20" width="2.875" customWidth="1"/>
+    <col min="21" max="50" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -532,7 +540,7 @@
     </row>
     <row r="10" spans="4:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" s="1"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -549,7 +557,7 @@
     </row>
     <row r="11" spans="4:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11" s="1"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -566,8 +574,7 @@
     </row>
     <row r="12" spans="4:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="3"/>
@@ -598,233 +605,327 @@
     </row>
     <row r="14" spans="4:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="1"/>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="4"/>
-      <c r="S14" s="7"/>
+      <c r="S14" s="6"/>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="4:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="1"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="7"/>
-      <c r="S15" s="7"/>
+      <c r="K15" s="6"/>
+      <c r="S15" s="6"/>
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="4:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="1"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="Q19" s="6"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="7"/>
+      <c r="P20" s="6"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="25" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+    <row r="24" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>11</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="1"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>8</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="10"/>
-      <c r="M28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="9"/>
+      <c r="P28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="10"/>
-      <c r="M29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="9"/>
+      <c r="P29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="10"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="9"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="3:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="3:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="M33" s="7"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="3:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="3:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="3:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="3:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="3:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="3:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>0</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="3:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>8</v>
+      </c>
+      <c r="M37">
+        <v>9</v>
+      </c>
+      <c r="N37">
+        <v>10</v>
+      </c>
+      <c r="O37">
+        <v>11</v>
+      </c>
+      <c r="P37">
+        <v>12</v>
+      </c>
+      <c r="Q37">
+        <v>13</v>
+      </c>
+      <c r="R37">
+        <v>14</v>
+      </c>
+      <c r="S37">
+        <v>15</v>
+      </c>
+      <c r="T37">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
